--- a/biology/Médecine/Syndrome_de_VACTERL/Syndrome_de_VACTERL.xlsx
+++ b/biology/Médecine/Syndrome_de_VACTERL/Syndrome_de_VACTERL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de VACTERL (ou « association VACTERL ») est un ensemble d'anomalies congénitales ou malformations, qui ne répondent à aucun critère précis de regroupement, mais qui n'apparaissent pas non plus de manière aléatoire.
 C'est une extension du syndrome de VATER.
@@ -512,9 +524,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les initiales V.A.C.T.E.R.L.[1] correspondent respectivement à des anomalies touchant les structures suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les initiales V.A.C.T.E.R.L. correspondent respectivement à des anomalies touchant les structures suivantes :
 Vertèbres (en ailes de papillon)
 Anus (imperforation anale)
 Cœur
@@ -551,9 +565,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe un déficit en synthèse de nicotinamide adénine dinucléotide (NAD) par mutation du gène HAAO ou KYNU[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe un déficit en synthèse de nicotinamide adénine dinucléotide (NAD) par mutation du gène HAAO ou KYNU.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le VACTERL et le VATER (sans atteinte cardiaque) affectent 1 cas pour 3 333 à 6 250 naissances[3]. Presque tous les cas sont sporadiques, et aucune étiologie tératogène ou chromosomique n'est retenue. Une étiologie génétique n'a été rapportée que pour des cas de VACTERL avec hydrocéphalie. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le VACTERL et le VATER (sans atteinte cardiaque) affectent 1 cas pour 3 333 à 6 250 naissances. Presque tous les cas sont sporadiques, et aucune étiologie tératogène ou chromosomique n'est retenue. Une étiologie génétique n'a été rapportée que pour des cas de VACTERL avec hydrocéphalie. 
 D'autres associations d'anomalies peuvent aussi se retrouver, à savoir les associations CHARGE et MURCS.
 </t>
         </is>
